--- a/이재석/보고서/3colors wbs.xlsx
+++ b/이재석/보고서/3colors wbs.xlsx
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="H10" s="19">
         <f>AVERAGE(H11:H13,H15:H19,H21:H23,H25:H28)</f>
-        <v>0.82000000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1031,11 +1031,11 @@
       </c>
       <c r="G14" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H14" s="14">
         <f>AVERAGE(H21:H23,H15:H19)</f>
-        <v>0.6875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H19" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1247,10 +1247,10 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="H24" s="14">
         <f>AVERAGE(H25:H28)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1366,10 +1366,10 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H28" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1387,12 +1387,11 @@
         <v>42726</v>
       </c>
       <c r="G29" s="17" t="str">
-        <f t="shared" ref="G29:G32" ca="1" si="1">IF(F29&gt;NOW(),"진행 중","완료")</f>
-        <v>진행 중</v>
+        <f t="shared" ref="G29:G31" ca="1" si="1">IF(F29&gt;NOW(),"진행 중","완료")</f>
+        <v>완료</v>
       </c>
       <c r="H29" s="19">
-        <f>AVERAGE(H30:H31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1413,10 +1412,10 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -1437,10 +1436,10 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>진행 중</v>
+        <v>완료</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
